--- a/SyncSummary.xlsx
+++ b/SyncSummary.xlsx
@@ -2,18 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="P02" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="P03" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="P05" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="P06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="P01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="P02" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="P03" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="P04" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="P05" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="P06" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="P07" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="P08" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="P09" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="P10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -53,7 +58,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +442,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Session3_20250219</t>
+          <t>Session3_20250217</t>
         </is>
       </c>
     </row>
@@ -491,182 +496,597 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT_12</t>
+          <t>CT_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.5</v>
+        <v>-2.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.123</v>
+        <v>0.644</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11 Table Tennis_1</t>
+          <t>Fruit Ninja_1</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-4.133</v>
+        <v>-1.033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.738</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11 Table Tennis_1</t>
+          <t>Hand Physics Lab_1</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>-0.433</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.915</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.067</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_2</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.533</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_3</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.033</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hand Therapy_1</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.5669999999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT_4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_4</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Juice Bar_1</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT_5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.367</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_5</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Juice Bar_2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>-0.533</v>
       </c>
+      <c r="I8" t="n">
+        <v>0.888</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT_6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_6</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Juice Bar_3</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.367</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT_7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_7</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>VR Rehab UQ_1</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.767</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.799</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT_8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_8</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.033</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>VR Rehab UQ_2</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.891</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT_9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>VR Rehab UQ_3</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.924</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>VR Rehab UQ_4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.958</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>VR Rehab UQ_5</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.767</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>VR Rehab UQ_6</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.733</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.793</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>VR Rehab UQ_7</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.667</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.741</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>VR Rehab UQ_8</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.367</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Session1_20250403</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Session2_20250408</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Session3_20250422</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.033</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
       <c r="I4" t="n">
-        <v>0.828</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.033</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.898</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11 Table Tennis_2</t>
+          <t>Beat Saber_2</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.2</v>
+        <v>-0.433</v>
       </c>
       <c r="F5" t="n">
-        <v>0.745</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Beat Saber_1</t>
+          <t>Fun House_1</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.467</v>
+        <v>-0.5669999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.773</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.033</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.843</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Beat Saber_1</t>
+          <t>Beat Saber_3</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-0.533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.847</v>
+        <v>0.862</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Beat Saber_2</t>
+          <t>Hand Physics Lab_1</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.4</v>
+        <v>-1.067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.871</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>Beat Saber_2</t>
+          <t>Fruit Ninja_1</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-3.767</v>
+        <v>-0.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Beat Saber_3</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.333</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.763</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
-          <t>Beat Saber_3</t>
+          <t>Fruit Ninja_2</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3.867</v>
+        <v>-0.433</v>
       </c>
       <c r="F8" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Beat Saber_4</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.167</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.713</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fruit Ninja_1</t>
+          <t>Fruit Ninja_3</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-4.1</v>
+        <v>-0.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Fruit Ninja_1</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.533</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.881</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Fruit Ninja_2</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.718</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Guided Tai Chi_1</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.167</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.739</v>
+        <v>0.926</v>
       </c>
     </row>
   </sheetData>
@@ -680,15 +1100,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="G2:I8"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Session1_20250203</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Session2_20250210</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Session3_20250219</t>
@@ -696,6 +1126,36 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Segment</t>
@@ -713,68 +1173,173 @@
       </c>
     </row>
     <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-4.133</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.738</v>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>11 Table Tennis_1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.533</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.828</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Beat Saber_1</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>-3.233</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H5" t="n">
+        <v>-0.467</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.773</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Beat Saber_2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.871</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" t="inlineStr">
+    <row r="7">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Beat Saber_2</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>-3.367</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.603</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="G6" t="inlineStr">
+      <c r="E7" t="n">
+        <v>-3.767</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Beat Saber_3</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.667</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.763</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Beat Saber_3</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-3.867</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Beat Saber_4</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.713</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.533</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.718</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Guided Tai Chi_1</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>-3.433</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.643</v>
+      <c r="H11" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.739</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +1353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D2:F8"/>
+  <dimension ref="D2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +1364,12 @@
     <row r="2">
       <c r="D2" t="inlineStr">
         <is>
-          <t>Session2_20250303</t>
+          <t>Session2_20250212</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Session3_20250219</t>
         </is>
       </c>
     </row>
@@ -819,70 +1389,166 @@
           <t>Correlation</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fruit Ninja_1</t>
+          <t>Beat Saber_1</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.84</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-3.233</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.871</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fruit Ninja_2</t>
+          <t>Fruit Ninja_1</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.133</v>
+        <v>-0.233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.926</v>
+        <v>0.852</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Beat Saber_2</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-3.367</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.603</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fruit Ninja_3</t>
+          <t>Fruit Ninja_2</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.333</v>
+        <v>0.233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.865</v>
+        <v>0.895</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Beat Saber_3</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.667</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fruit Ninja_4</t>
+          <t>Fruit Ninja_3</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>-0.167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.894</v>
+        <v>0.824</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Beat Saber_4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fruit Ninja_5</t>
+          <t>Fruit Ninja_4</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>-0.067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.906</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Guided Tai Chi_1</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-3.433</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.643</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_5</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_6</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.924</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +1562,328 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D2:F8"/>
+  <dimension ref="A2:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Session1_20250207</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Session2_20250214</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Session3_20250221</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.733</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Beat Saber_2</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_3</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.833</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Beat Saber_3</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.887</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT_4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.767</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.913</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT_5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.5669999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.886</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT_6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Guided Tai Chi_1</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.867</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT_7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Guided Tai Chi_2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.033</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT_8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.433</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Guided Tai Chi_3</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.433</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Guided Tai Chi_4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,13 +1892,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Session1_20250224</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Session2_20250303</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Session3_20250331</t>
+        </is>
+      </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Segment</t>
@@ -927,8 +1939,357 @@
           <t>Correlation</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.733</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_3</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT_4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_4</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.926</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT_5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_5</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_5</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.868</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_6</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.893</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.842</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_8</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_9</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Session1_20250224</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Session2_20250303</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Session3_20250317</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.967</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.049</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Beat Saber_1</t>
@@ -940,8 +2301,30 @@
       <c r="F4" t="n">
         <v>0.663</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6840000000000001</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.782</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Beat Saber_2</t>
@@ -953,8 +2336,30 @@
       <c r="F5" t="n">
         <v>0.575</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.783</v>
+      </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.133</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.702</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Fruit Ninja_1</t>
@@ -966,8 +2371,30 @@
       <c r="F6" t="n">
         <v>0.832</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Beat Saber_2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT_4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.067</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.41</v>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Hand Physics Lab_1</t>
@@ -979,8 +2406,30 @@
       <c r="F7" t="n">
         <v>0.762</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_1</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.653</v>
+      </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT_5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.008999999999999999</v>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Hand Physics Lab_2</t>
@@ -991,6 +2440,1267 @@
       </c>
       <c r="F8" t="n">
         <v>0.5570000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT_6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.033</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.768</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT_7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.967</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT_8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT_9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-2.067</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Session1_20250224</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Session2_20250303</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.433</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT_4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT_5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_2</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.603</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT_6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.676</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT_7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT_8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.433</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT_9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.5669999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT_10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT_11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT_12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Session1_20250304</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Session2_20250318</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Session3_20250327</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-2.333</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.883</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-2.267</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_3</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Beat Saber_2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>-2.233</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT_4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Beer Pong_1</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Beat Saber_3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>-2.133</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT_5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Beer Pong_2</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.633</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Beer Pong_1</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.893</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT_6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_1</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>-2.233</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.884</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT_7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.533</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_2</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT_8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_1</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.967</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.863</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT_9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT_10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.853</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT_11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.267</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT_12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.858</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CT_13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.567</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CT_14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.837</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT_15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT_16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.433</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CT_17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.267</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CT_18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Session1_20250227</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Session2_20250320</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Session3_20250327</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.133</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-3.167</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.777</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-2.033</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_1</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT_4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Beat Saber_2</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.167</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Job Simulator_1</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>-1.933</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT_5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.467</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Beer Pong_1</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.133</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.902</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT_6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_1</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-2.033</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.759</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT_7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_2</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.614</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT_8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT_9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT_10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT_11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.887</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT_12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CT_13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CT_14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.547</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT_15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT_16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.433</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.767</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CT_17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.9330000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CT_18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.667</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.549</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CT_19</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.616</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CT_20</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.533</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8159999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/SyncSummary.xlsx
+++ b/SyncSummary.xlsx
@@ -970,14 +970,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fruit Ninja_1</t>
+          <t>Hand Physics Lab_3</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>-0.9</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="5">
@@ -1100,7 +1100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -1173,6 +1173,17 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.787</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>11 Table Tennis_1</t>
@@ -1197,6 +1208,17 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.59</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>11 Table Tennis_2</t>
@@ -1221,6 +1243,17 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.515</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Beat Saber_1</t>
@@ -1245,6 +1278,17 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT_4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.411</v>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Beat Saber_2</t>
@@ -1269,6 +1313,17 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT_5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.233</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5610000000000001</v>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Beat Saber_3</t>
@@ -1293,6 +1348,17 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT_6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.515</v>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Fruit Ninja_1</t>
@@ -1317,6 +1383,17 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT_7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.871</v>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Fruit Ninja_2</t>
@@ -1330,6 +1407,17 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT_8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.706</v>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>Guided Tai Chi_1</t>
@@ -1340,6 +1428,58 @@
       </c>
       <c r="I11" t="n">
         <v>0.739</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT_9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.833</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT_10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.233</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.848</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT_11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.862</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT_12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.969</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D2:I10"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1362,6 +1502,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Session1_20250205</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Session2_20250212</t>
@@ -1374,6 +1519,21 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Segment</t>
@@ -1406,6 +1566,17 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT_2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.665</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Beat Saber_1</t>
@@ -1430,6 +1601,17 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT_3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.533</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Fruit Ninja_1</t>
@@ -1454,6 +1636,17 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT_4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.633</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.676</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Fruit Ninja_2</t>
@@ -1478,6 +1671,17 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT_5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.883</v>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Fruit Ninja_3</t>
@@ -1502,6 +1706,17 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT_6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.432</v>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Fruit Ninja_4</t>
@@ -1526,6 +1741,17 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT_7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.233</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.88</v>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Fruit Ninja_5</t>
@@ -1539,6 +1765,17 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT_8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.867</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.604</v>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Fruit Ninja_6</t>
@@ -1637,14 +1874,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT_1</t>
+          <t>CT_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.333</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.462</v>
+        <v>0.662</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2505,7 +2742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,6 +2761,11 @@
           <t>Session2_20250303</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Session3_20250317</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2556,6 +2798,21 @@
           <t>Correlation</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Segment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Correlation</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2580,6 +2837,17 @@
       <c r="F4" t="n">
         <v>0.855</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.919</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2604,6 +2872,17 @@
       <c r="F5" t="n">
         <v>0.872</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11 Table Tennis_2</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2628,6 +2907,17 @@
       <c r="F6" t="n">
         <v>0.87</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Beat Saber_1</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.888</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2652,6 +2942,17 @@
       <c r="F7" t="n">
         <v>0.873</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Beat Saber_2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2676,6 +2977,17 @@
       <c r="F8" t="n">
         <v>0.603</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_1</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.929</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2688,6 +3000,17 @@
       </c>
       <c r="C9" t="n">
         <v>0.676</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fruit Ninja_2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.858</v>
       </c>
     </row>
     <row r="10">
@@ -2854,14 +3177,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT_1</t>
+          <t>CT_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0.833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.653</v>
+        <v>0.539</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3325,14 +3648,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT_1</t>
+          <t>CT_16</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.067</v>
+        <v>-0.333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/SyncSummary.xlsx
+++ b/SyncSummary.xlsx
@@ -2529,14 +2529,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Beat Saber_1</t>
+          <t>Beat Saber_2</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.663</v>
+        <v>0.575</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>

--- a/SyncSummary.xlsx
+++ b/SyncSummary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="P01" sheetId="1" state="visible" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -496,25 +496,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT_1</t>
+          <t>CT_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.644</v>
+        <v>0.593</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fruit Ninja_1</t>
+          <t>Fruit Ninja_7</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>-1.033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         <v>-0.433</v>
       </c>
       <c r="I4" t="n">
-        <v>0.915</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.4</v>
+        <v>-2.433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.799</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         <v>-1.067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.827</v>
+        <v>0.902</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.333</v>
+        <v>-0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.95</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="6">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.533</v>
+        <v>-2.6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.497</v>
+        <v>0.403</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1.033</v>
+        <v>-0.967</v>
       </c>
       <c r="F6" t="n">
-        <v>0.897</v>
+        <v>0.911</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.5669999999999999</v>
+        <v>-0.267</v>
       </c>
       <c r="I6" t="n">
-        <v>0.429</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="C7" t="n">
-        <v>0.644</v>
+        <v>0.637</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.835</v>
+        <v>0.902</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.4</v>
+        <v>-0.367</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.367</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.62</v>
+        <v>0.593</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.8</v>
+        <v>-0.733</v>
       </c>
       <c r="F8" t="n">
-        <v>0.833</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.533</v>
+        <v>-0.367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.888</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="9">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.5</v>
+        <v>-2.533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.372</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.867</v>
+        <v>-0.9</v>
       </c>
       <c r="F9" t="n">
-        <v>0.889</v>
+        <v>0.892</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-0.367</v>
+        <v>-0.3</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.9</v>
+        <v>1.967</v>
       </c>
       <c r="C10" t="n">
-        <v>0.38</v>
+        <v>0.541</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-1.1</v>
+        <v>-1.033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.709</v>
+        <v>0.79</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.767</v>
+        <v>-0.433</v>
       </c>
       <c r="I10" t="n">
-        <v>0.799</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="11">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.2</v>
+        <v>-2.233</v>
       </c>
       <c r="C11" t="n">
-        <v>0.39</v>
+        <v>0.582</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1.033</v>
+        <v>-0.967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.947</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0.367</v>
       </c>
       <c r="I11" t="n">
-        <v>0.891</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="12">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="C12" t="n">
-        <v>0.576</v>
+        <v>0.711</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.924</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.167</v>
+        <v>0.133</v>
       </c>
       <c r="I13" t="n">
-        <v>0.958</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="14">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-0.767</v>
+        <v>-0.467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.801</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="15">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-0.733</v>
+        <v>-0.467</v>
       </c>
       <c r="I15" t="n">
-        <v>0.793</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="16">
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-0.667</v>
+        <v>-0.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.741</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="17">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-0.367</v>
+        <v>-0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>0.729</v>
+        <v>0.676</v>
       </c>
     </row>
   </sheetData>
@@ -875,8 +875,8 @@
   </sheetPr>
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.033</v>
+        <v>-1.933</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -966,18 +966,18 @@
         <v>-0.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.802</v>
+        <v>0.795</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hand Physics Lab_3</t>
+          <t>Fruit Ninja_1</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.9</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.912</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="5">
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.033</v>
+        <v>-2.067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.898</v>
+        <v>0.86</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.433</v>
+        <v>-0.333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.5669999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="I5" t="n">
-        <v>0.867</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="6">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.033</v>
+        <v>-1.967</v>
       </c>
       <c r="C6" t="n">
-        <v>0.843</v>
+        <v>0.837</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.533</v>
+        <v>-0.433</v>
       </c>
       <c r="F6" t="n">
-        <v>0.862</v>
+        <v>0.888</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>-1.067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.699</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.4</v>
+        <v>-0.533</v>
       </c>
       <c r="F7" t="n">
-        <v>0.897</v>
+        <v>0.916</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.903</v>
       </c>
     </row>
     <row r="8">
@@ -1070,10 +1081,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.433</v>
+        <v>-0.467</v>
       </c>
       <c r="F8" t="n">
-        <v>0.829</v>
+        <v>0.918</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hand Physics Lab_3</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.867</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.861</v>
       </c>
     </row>
     <row r="9">
@@ -1083,10 +1105,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.5</v>
+        <v>-0.467</v>
       </c>
       <c r="F9" t="n">
-        <v>0.926</v>
+        <v>0.912</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1125,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1182,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.787</v>
+        <v>0.892</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1190,10 +1212,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-4.133</v>
+        <v>-4.033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.738</v>
+        <v>0.611</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1201,10 +1223,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.533</v>
+        <v>-0.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.828</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="5">
@@ -1214,10 +1236,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.167</v>
+        <v>-0.133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.59</v>
+        <v>0.608</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1225,10 +1247,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.2</v>
+        <v>-4.233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.745</v>
+        <v>0.754</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1236,10 +1258,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.467</v>
+        <v>-0.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.773</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="6">
@@ -1249,10 +1271,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.367</v>
+        <v>0.2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.515</v>
+        <v>0.571</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1260,10 +1282,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-4.067</v>
       </c>
       <c r="F6" t="n">
-        <v>0.847</v>
+        <v>0.885</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1271,10 +1293,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.4</v>
+        <v>-0.367</v>
       </c>
       <c r="I6" t="n">
-        <v>0.871</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="7">
@@ -1284,10 +1306,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.133</v>
+        <v>-0.233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.411</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1295,10 +1317,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-3.767</v>
+        <v>-3.7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1306,10 +1328,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.333</v>
+        <v>-0.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.763</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1319,10 +1341,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.233</v>
+        <v>-1.367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.488</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1330,10 +1352,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3.867</v>
+        <v>-3.633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.821</v>
+        <v>0.822</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1341,10 +1363,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.167</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.713</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1354,10 +1376,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.667</v>
+        <v>-0.5669999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.515</v>
+        <v>0.732</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,10 +1387,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-4.1</v>
+        <v>-4.033</v>
       </c>
       <c r="F9" t="n">
-        <v>0.722</v>
+        <v>0.732</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1376,10 +1398,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-0.533</v>
+        <v>-0.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0.881</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="10">
@@ -1392,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.871</v>
+        <v>0.896</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1400,10 +1422,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.718</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="11">
@@ -1413,10 +1435,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.7</v>
+        <v>-0.467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.706</v>
+        <v>0.834</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1424,10 +1446,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.167</v>
+        <v>-0.267</v>
       </c>
       <c r="I11" t="n">
-        <v>0.739</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="12">
@@ -1437,10 +1459,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.833</v>
+        <v>-0.433</v>
       </c>
       <c r="C12" t="n">
-        <v>0.612</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1450,10 +1472,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.233</v>
+        <v>-0.133</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="14">
@@ -1463,10 +1485,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3</v>
+        <v>-0.267</v>
       </c>
       <c r="C14" t="n">
-        <v>0.862</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="15">
@@ -1476,10 +1498,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.067</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.969</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1518,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1572,10 +1594,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9</v>
+        <v>-0.767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.665</v>
+        <v>0.571</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1586,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1597,7 +1619,7 @@
         <v>-3.233</v>
       </c>
       <c r="I4" t="n">
-        <v>0.871</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="5">
@@ -1607,10 +1629,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.033</v>
+        <v>0.333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.533</v>
+        <v>0.507</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1618,10 +1640,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.233</v>
+        <v>-0.067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.852</v>
+        <v>0.842</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1629,10 +1651,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-3.367</v>
+        <v>-3.233</v>
       </c>
       <c r="I5" t="n">
-        <v>0.603</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="6">
@@ -1642,10 +1664,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.633</v>
+        <v>-0.533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.676</v>
+        <v>0.836</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1653,10 +1675,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.233</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="n">
-        <v>0.895</v>
+        <v>0.964</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1664,10 +1686,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>0.667</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7">
@@ -1677,10 +1699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.167</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.883</v>
+        <v>0.912</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1688,10 +1710,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.167</v>
+        <v>0.033</v>
       </c>
       <c r="F7" t="n">
-        <v>0.824</v>
+        <v>0.919</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1699,10 +1721,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-3.4</v>
+        <v>-3.533</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="8">
@@ -1712,10 +1734,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3</v>
+        <v>-0.433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.432</v>
+        <v>0.733</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1723,10 +1745,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.067</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.906</v>
+        <v>0.894</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1734,10 +1756,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-3.433</v>
+        <v>-3.367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.643</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="9">
@@ -1747,10 +1769,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.233</v>
+        <v>-0.4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.88</v>
+        <v>0.847</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1761,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="10">
@@ -1771,10 +1793,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.867</v>
+        <v>-0.733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.604</v>
+        <v>0.669</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1782,10 +1804,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.167</v>
+        <v>-0.067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.924</v>
+        <v>0.947</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1823,7 @@
   </sheetPr>
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1874,14 +1896,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT_3</t>
+          <t>CT_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0.233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.662</v>
+        <v>0.433</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1892,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.831</v>
+        <v>0.915</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1900,10 +1922,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.8</v>
+        <v>-0.733</v>
       </c>
       <c r="I4" t="n">
-        <v>0.833</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="5">
@@ -1913,10 +1935,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.133</v>
+        <v>-0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.657</v>
+        <v>0.667</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1924,10 +1946,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.733</v>
+        <v>-0.533</v>
       </c>
       <c r="F5" t="n">
-        <v>0.851</v>
+        <v>0.791</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1935,10 +1957,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.8</v>
+        <v>-0.767</v>
       </c>
       <c r="I5" t="n">
-        <v>0.832</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1951,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.662</v>
+        <v>0.54</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1962,7 +1984,7 @@
         <v>-0.833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.868</v>
+        <v>0.838</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1970,10 +1992,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.667</v>
+        <v>-0.733</v>
       </c>
       <c r="I6" t="n">
-        <v>0.887</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="7">
@@ -1983,10 +2005,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.133</v>
+        <v>-0.9330000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.799</v>
+        <v>0.892</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1994,10 +2016,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.767</v>
+        <v>-0.7</v>
       </c>
       <c r="I7" t="n">
-        <v>0.913</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -2007,10 +2029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5669999999999999</v>
+        <v>-0.733</v>
       </c>
       <c r="C8" t="n">
-        <v>0.788</v>
+        <v>0.78</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2018,10 +2040,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.6</v>
+        <v>-0.533</v>
       </c>
       <c r="I8" t="n">
-        <v>0.886</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="9">
@@ -2031,10 +2053,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4</v>
+        <v>-0.467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.864</v>
+        <v>0.839</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2042,10 +2064,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-0.867</v>
+        <v>-0.767</v>
       </c>
       <c r="I9" t="n">
-        <v>0.909</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="10">
@@ -2058,7 +2080,7 @@
         <v>-0.333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.468</v>
+        <v>0.422</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2066,10 +2088,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-1.033</v>
+        <v>-1.3</v>
       </c>
       <c r="I10" t="n">
-        <v>0.526</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="11">
@@ -2079,10 +2101,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.433</v>
+        <v>-0.367</v>
       </c>
       <c r="C11" t="n">
-        <v>0.824</v>
+        <v>0.743</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2090,10 +2112,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.433</v>
+        <v>-0.333</v>
       </c>
       <c r="I11" t="n">
-        <v>0.504</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="12">
@@ -2103,10 +2125,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-0.6</v>
+        <v>-0.667</v>
       </c>
       <c r="I12" t="n">
-        <v>0.886</v>
+        <v>0.879</v>
       </c>
     </row>
   </sheetData>
@@ -2199,10 +2221,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.468</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2210,10 +2232,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.3</v>
+        <v>-0.433</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2224,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.733</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="5">
@@ -2237,7 +2259,7 @@
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.902</v>
+        <v>0.881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2245,10 +2267,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.133</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.926</v>
+        <v>0.963</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2256,10 +2278,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.033</v>
+        <v>-0.467</v>
       </c>
       <c r="I5" t="n">
-        <v>0.83</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="6">
@@ -2269,10 +2291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.667</v>
+        <v>0.867</v>
       </c>
       <c r="C6" t="n">
-        <v>0.272</v>
+        <v>0.235</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2280,10 +2302,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.333</v>
+        <v>-0.167</v>
       </c>
       <c r="F6" t="n">
-        <v>0.865</v>
+        <v>0.927</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2294,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.919</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="7">
@@ -2304,10 +2326,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.733</v>
+        <v>0.667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.891</v>
+        <v>0.878</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2318,7 +2340,7 @@
         <v>-0.167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.894</v>
+        <v>0.909</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2329,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.926</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="8">
@@ -2339,10 +2361,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.667</v>
+        <v>0.7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.764</v>
+        <v>0.824</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2350,10 +2372,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.067</v>
+        <v>-0.133</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.967</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2364,7 +2386,7 @@
         <v>-0.033</v>
       </c>
       <c r="I8" t="n">
-        <v>0.855</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="9">
@@ -2377,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.868</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="10">
@@ -2390,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.893</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="11">
@@ -2400,10 +2422,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.033</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.842</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="12">
@@ -2413,10 +2435,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-0.067</v>
+        <v>-0.033</v>
       </c>
       <c r="I12" t="n">
-        <v>0.879</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="13">
@@ -2429,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.855</v>
+        <v>0.951</v>
       </c>
     </row>
   </sheetData>
@@ -2522,21 +2544,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.967</v>
+        <v>-2.033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.049</v>
+        <v>0.103</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Beat Saber_2</t>
+          <t>Beat Saber_1</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.575</v>
+        <v>0.734</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2544,10 +2566,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.433</v>
+        <v>0.533</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="5">
@@ -2557,10 +2579,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2</v>
+        <v>-1.967</v>
       </c>
       <c r="C5" t="n">
-        <v>0.782</v>
+        <v>0.72</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2568,10 +2590,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.575</v>
+        <v>0.74</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2579,10 +2601,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.533</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.783</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="6">
@@ -2592,10 +2614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.133</v>
+        <v>-2.1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.702</v>
+        <v>0.523</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2603,10 +2625,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.233</v>
+        <v>0.333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.832</v>
+        <v>0.819</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2614,10 +2636,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.367</v>
+        <v>0.433</v>
       </c>
       <c r="I6" t="n">
-        <v>0.753</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
@@ -2627,10 +2649,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.067</v>
+        <v>-2.1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.41</v>
+        <v>0.355</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2641,7 +2663,7 @@
         <v>0.133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.762</v>
+        <v>0.658</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2649,10 +2671,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.653</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="8">
@@ -2662,10 +2684,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.5</v>
+        <v>2.833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2673,10 +2695,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="9">
@@ -2689,7 +2711,7 @@
         <v>-2.033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.768</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="10">
@@ -2699,10 +2721,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.967</v>
+        <v>-2.167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.527</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="11">
@@ -2712,10 +2734,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.5</v>
+        <v>0.333</v>
       </c>
       <c r="C11" t="n">
-        <v>0.305</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="12">
@@ -2728,7 +2750,7 @@
         <v>-2.067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.745</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2821,10 +2843,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1</v>
+        <v>0.033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.789</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2832,10 +2854,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>-0.633</v>
       </c>
       <c r="F4" t="n">
-        <v>0.855</v>
+        <v>0.662</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2843,10 +2865,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.033</v>
+        <v>0.033</v>
       </c>
       <c r="I4" t="n">
-        <v>0.919</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="5">
@@ -2856,10 +2878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.433</v>
+        <v>-0.2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.865</v>
+        <v>0.836</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2870,7 +2892,7 @@
         <v>0.233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.872</v>
+        <v>0.877</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2881,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.89</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="6">
@@ -2894,7 +2916,7 @@
         <v>-0.067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.831</v>
+        <v>0.743</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2902,10 +2924,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.267</v>
+        <v>0.233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.87</v>
+        <v>0.54</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2913,10 +2935,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.033</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.888</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="7">
@@ -2926,10 +2948,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.133</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.795</v>
+        <v>0.792</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2937,10 +2959,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.133</v>
+        <v>0.167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.873</v>
+        <v>0.891</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2948,10 +2970,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.333</v>
+        <v>-0.033</v>
       </c>
       <c r="I7" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8">
@@ -2964,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.837</v>
+        <v>0.856</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2975,7 +2997,7 @@
         <v>0.067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.603</v>
+        <v>0.611</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2983,10 +3005,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="I8" t="n">
-        <v>0.929</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="9">
@@ -2996,10 +3018,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="C9" t="n">
-        <v>0.676</v>
+        <v>0.466</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3010,7 +3032,7 @@
         <v>0.033</v>
       </c>
       <c r="I9" t="n">
-        <v>0.858</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3020,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1</v>
+        <v>0.033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.704</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3033,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.433</v>
+        <v>-0.133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.609</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="12">
@@ -3046,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.5669999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.58</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="13">
@@ -3062,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.714</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3072,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.667</v>
+        <v>0.733</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="15">
@@ -3085,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.523</v>
+        <v>0.533</v>
       </c>
     </row>
   </sheetData>
@@ -3177,14 +3199,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT_6</t>
+          <t>CT_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.833</v>
+        <v>1.667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.539</v>
+        <v>0.553</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3192,10 +3214,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.6</v>
+        <v>-0.733</v>
       </c>
       <c r="F4" t="n">
-        <v>0.865</v>
+        <v>0.864</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3203,10 +3225,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-2.333</v>
+        <v>-2.367</v>
       </c>
       <c r="I4" t="n">
-        <v>0.883</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="5">
@@ -3216,10 +3238,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="C5" t="n">
-        <v>0.801</v>
+        <v>0.456</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3227,10 +3249,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.667</v>
+        <v>-0.633</v>
       </c>
       <c r="F5" t="n">
-        <v>0.507</v>
+        <v>0.464</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3238,10 +3260,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-2.267</v>
+        <v>-2.233</v>
       </c>
       <c r="I5" t="n">
-        <v>0.855</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="6">
@@ -3251,10 +3273,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0.333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.956</v>
+        <v>0.602</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3262,10 +3284,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.7</v>
+        <v>-0.733</v>
       </c>
       <c r="F6" t="n">
-        <v>0.571</v>
+        <v>0.643</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3273,10 +3295,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-2.233</v>
+        <v>-1.967</v>
       </c>
       <c r="I6" t="n">
-        <v>0.88</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="7">
@@ -3286,10 +3308,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.422</v>
+        <v>0.432</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3297,10 +3319,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.4</v>
+        <v>-0.367</v>
       </c>
       <c r="F7" t="n">
-        <v>0.902</v>
+        <v>0.87</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3308,10 +3330,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-2.133</v>
+        <v>-2.033</v>
       </c>
       <c r="I7" t="n">
-        <v>0.871</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="8">
@@ -3321,10 +3343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.984</v>
+        <v>0.973</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3332,10 +3354,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.633</v>
+        <v>-0.7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.958</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3346,7 +3368,7 @@
         <v>-2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.893</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="9">
@@ -3356,10 +3378,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3367,10 +3389,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.7</v>
+        <v>-0.533</v>
       </c>
       <c r="F9" t="n">
-        <v>0.902</v>
+        <v>0.915</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3378,10 +3400,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-2.233</v>
+        <v>-2.167</v>
       </c>
       <c r="I9" t="n">
-        <v>0.884</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="10">
@@ -3391,10 +3413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.533</v>
+        <v>-0.233</v>
       </c>
       <c r="C10" t="n">
-        <v>0.158</v>
+        <v>0.287</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3402,10 +3424,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.8</v>
+        <v>-0.667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.972</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="11">
@@ -3415,10 +3437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0.167</v>
       </c>
       <c r="C11" t="n">
-        <v>0.775</v>
+        <v>0.397</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -3429,7 +3451,7 @@
         <v>-0.967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.863</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="12">
@@ -3439,10 +3461,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.341</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="13">
@@ -3452,10 +3474,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3</v>
+        <v>-0.033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.853</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="14">
@@ -3465,10 +3487,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.267</v>
+        <v>-0.067</v>
       </c>
       <c r="C14" t="n">
-        <v>0.313</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="15">
@@ -3478,10 +3500,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.858</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="16">
@@ -3491,10 +3513,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.567</v>
+        <v>-0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.102</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="17">
@@ -3504,10 +3526,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1</v>
+        <v>-0.233</v>
       </c>
       <c r="C17" t="n">
-        <v>0.837</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="18">
@@ -3517,10 +3539,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.754</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="19">
@@ -3530,10 +3552,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.433</v>
+        <v>-0.267</v>
       </c>
       <c r="C19" t="n">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="20">
@@ -3543,10 +3565,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.267</v>
+        <v>-0.333</v>
       </c>
       <c r="C20" t="n">
-        <v>0.609</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="21">
@@ -3556,10 +3578,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3</v>
+        <v>-0.367</v>
       </c>
       <c r="C21" t="n">
-        <v>0.665</v>
+        <v>0.641</v>
       </c>
     </row>
   </sheetData>
@@ -3648,14 +3670,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT_16</t>
+          <t>CT_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.333</v>
+        <v>-0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7</v>
+        <v>0.339</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3663,10 +3685,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-2.133</v>
+        <v>-2.033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3677,20 +3699,20 @@
         <v>-3.167</v>
       </c>
       <c r="I4" t="n">
-        <v>0.777</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT_2</t>
+          <t>CT_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.403</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3701,7 +3723,7 @@
         <v>-2.033</v>
       </c>
       <c r="F5" t="n">
-        <v>0.656</v>
+        <v>0.699</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3709,10 +3731,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-3</v>
+        <v>-2.833</v>
       </c>
       <c r="I5" t="n">
-        <v>0.774</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="6">
@@ -3725,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.591</v>
+        <v>0.571</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3733,10 +3755,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-2.2</v>
+        <v>-2.167</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.654</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3744,10 +3766,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-3.4</v>
+        <v>-3.333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="7">
@@ -3757,10 +3779,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.133</v>
+        <v>-0.2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.53</v>
+        <v>0.507</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3768,10 +3790,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-2.167</v>
+        <v>-1.767</v>
       </c>
       <c r="F7" t="n">
-        <v>0.748</v>
+        <v>0.786</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3779,10 +3801,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-1.933</v>
+        <v>-2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.516</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="8">
@@ -3792,10 +3814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.467</v>
+        <v>-0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.447</v>
+        <v>0.486</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3803,10 +3825,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2.133</v>
+        <v>-2.067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.902</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="9">
@@ -3819,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.341</v>
+        <v>0.217</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3827,10 +3849,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-2.033</v>
+        <v>-1.867</v>
       </c>
       <c r="F9" t="n">
-        <v>0.759</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="10">
@@ -3840,10 +3862,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3851,10 +3873,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-2.1</v>
+        <v>-2.167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.614</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3867,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.609</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="12">
@@ -3877,10 +3899,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.133</v>
       </c>
       <c r="C12" t="n">
-        <v>0.666</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="13">
@@ -3893,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.874</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3906,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.887</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="15">
@@ -3919,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.752</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="16">
@@ -3932,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.501</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="17">
@@ -3942,10 +3964,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2</v>
+        <v>0.333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.547</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="18">
@@ -3955,10 +3977,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.167</v>
+        <v>0.9</v>
       </c>
       <c r="C18" t="n">
-        <v>0.79</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3968,10 +3990,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.433</v>
+        <v>-0.333</v>
       </c>
       <c r="C19" t="n">
-        <v>0.767</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="20">
@@ -3981,10 +4003,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.9330000000000001</v>
+        <v>-1.367</v>
       </c>
       <c r="C20" t="n">
-        <v>0.26</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="21">
@@ -3997,7 +4019,7 @@
         <v>-0.667</v>
       </c>
       <c r="C21" t="n">
-        <v>0.549</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="22">
@@ -4007,10 +4029,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0.167</v>
       </c>
       <c r="C22" t="n">
-        <v>0.616</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="23">
@@ -4020,10 +4042,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.533</v>
+        <v>-0.2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.848</v>
       </c>
     </row>
   </sheetData>
